--- a/files/respuestas/2021/respuestas_2021.xlsx
+++ b/files/respuestas/2021/respuestas_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN52"/>
+  <dimension ref="A1:BN53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2674,7 +2674,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alcaldia Local De Los Martires</t>
+          <t>Alcaldia Local De Martires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3022,17 +3022,15 @@
           <t>https://drive.google.com/open?id=1FijEuR4hVZHMN_seUR0zu_0IVtoRqIsH</t>
         </is>
       </c>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>35492fe1-7cc7-4e86-a18c-aa42d2e6469c</t>
-        </is>
+      <c r="BN8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alcaldia Local De Rafael Uribe Uribe</t>
+          <t>Alcaldia Local De Rafael Uribe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3359,10 +3357,8 @@
           <t>https://drive.google.com/open?id=1VuSP1fjHekL8PaFpyHg-jHXeR6cEVO_e</t>
         </is>
       </c>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>16790b2a-7734-4ee5-8914-a100e6c136cb</t>
-        </is>
+      <c r="BN9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5872,10 +5868,8 @@
           <t>https://drive.google.com/open?id=1JDOeEaA2rk-mhhReXNyFs6MSPW7MInr4</t>
         </is>
       </c>
-      <c r="BN17" t="inlineStr">
-        <is>
-          <t>dae08630-74c8-44c3-906c-d4b7fdbd4bfa</t>
-        </is>
+      <c r="BN17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7498,7 +7492,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fondo De Prestaciones Economicas, Cesantias Y Pensiones</t>
+          <t>Fondo De Prestaciones Economicas Cesantias Y Pensiones</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -8838,7 +8832,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Instituto Distrital De Participacion Y Accion Comunal</t>
+          <t>Instituto Distrital De La Participacion Y Accion Comunal Idpac</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9150,10 +9144,8 @@
           <t>https://drive.google.com/open?id=1E4157V4PEFrZedunM5JJRE2YYiAoi421</t>
         </is>
       </c>
-      <c r="BN27" t="inlineStr">
-        <is>
-          <t>8f2013cb-a19d-4b94-82e1-dde826049c56</t>
-        </is>
+      <c r="BN27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -10141,7 +10133,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Instituto Distrital Para La Economia Social</t>
+          <t>Instituto Para La Economia Social</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -10424,10 +10416,8 @@
         </is>
       </c>
       <c r="BM31" t="inlineStr"/>
-      <c r="BN31" t="inlineStr">
-        <is>
-          <t>e32446a6-18d0-481c-b2b4-3e32a9356113</t>
-        </is>
+      <c r="BN31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -10740,10 +10730,8 @@
         </is>
       </c>
       <c r="BM32" t="inlineStr"/>
-      <c r="BN32" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
+      <c r="BN32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -11395,27 +11383,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>myriamvillamil001@gmail.com</t>
+          <t>yaneth.pinilla@ambientebogota.gov.co</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Hacienda</t>
+          <t>Secretaria Distrital De Ambiente</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Myriam Villamil Barbosa</t>
+          <t>Yaneth Lucia Pinilla Beltran</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Profesional Especializado</t>
+          <t>Profesional Universitario 219-18</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>mvillamilb@shd.gov.co</t>
+          <t>yaneth.pinilla@ambientebogota.gov.co</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -11431,328 +11419,10 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Ver justificación adjunta</t>
+          <t>En concordancia con la meta plan de desarrollo distrital, la SDA se ha trazado como objetivo general “Elevar la articulación en la gestión de información en la SDA” .</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>2019: 201.693.187.664
-2020: 208.398.107.085</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2019: 13.046.360.347
-2020: 12.715.229.785</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2019:74.002.166.230      2020: 34.124.525.322</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2019: 28.482.356.368
-2020: 24.180.389.943</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2019: 1.253    2020: 1.294</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>2019: 126    2020:139</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1jyO1umdvl_w_dl1ixLe4DkEaPAQo46al</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>2019: 272    2020: 238</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>2019: 8   2020:17</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1K2ZixKVa9-_MCKkHuuBRVyGwNFRUab99</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ver justificación en archivo anexo
-</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>A. Utilizó esta información para la planificación de las acciones de la Entidad (Comités directivos, reuniones de planeación, entre otros), Esta información es utilizada como insumo para la mejora del servicio, como evidencia se adjunta informe de gestión sobre la implementación de la política de Servicio al Ciudadano del Modelo Integrado de Planeación y Gestión.</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>Ver justificación en archivo anexo</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>Ver archivo adjunto de justificación</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ver justificación en archivo adjunto
-</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ver descripción en archivo adjunto
-</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>A. Eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por la entidad., B. Eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad., D. Formación o capacitación directa en temas de innovación auspiciadas y/o financiadas por otra entidad.</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>Ver justificación en archivo anexo</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>En el marco de la implementación de la solución tecnológica Bogdata, se ha desarrollado un ejercicio de Gestión del Cambio  articulado a a través del Comité de Gestión del Cambio que se reúne semanalmente con el objetivo se hacer seguimiento al avance de la implementación en aspectos como:  Plan de entrenamientos, estrategia de comunicaciones y avance de los ajustes en la documentación de proceso y procedimientos, y funcionamiento de las aulas virtuales de asesoría a las entidades del Distrito. entre otros aspectos. Se adjuntan presentaciones sobre las reuniones del comité indicado y la resolución SDH - 000046 de 2021 "Por la cual se actualiza el modelo de soporte del Sistema de información Bogdata y se adecuan sus instancias de gobierno"</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AP35" t="inlineStr">
-        <is>
-          <t>El espacio de equipos de trabajo, reglamentado mediante la resolución SDH-000542 de 2019, en el cual se convoca a los funcionarios de carrera y libre nombramiento y remoción de la entidad para conformar equipos de trabajo y presentar proyectos nuevos que generen valor a la gestión institucional y solucionen problemas de la organización.(de adjunta la convocatoria realizada en 2019 y 2020).</t>
-        </is>
-      </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
-        <is>
-          <t>Ver descripción en archivo adjunto</t>
-        </is>
-      </c>
-      <c r="AT35" t="n">
-        <v>1136</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AY35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ver justificación en archivo anexo </t>
-        </is>
-      </c>
-      <c r="AZ35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BA35" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1OFGtPFyuAE4t0oUA2SeDIRsp4oSL7Y2C, https://drive.google.com/open?id=1iBT8Tqgf0o0aC7sQoRbZxcd77Ceq7wss</t>
-        </is>
-      </c>
-      <c r="BB35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BC35" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=14gSMeoVimi4VNrw-hxhgcoF9pQxhMnr5, https://drive.google.com/open?id=1Cy9xOfP5GsWbm9cM7vGY7zyYTurnDaTl, https://drive.google.com/open?id=1Yrcu2-9-v10rwKFszM1esBkLfpCCscKI, https://drive.google.com/open?id=1SI0KjF42QBNpclECXp12gNcGlZ1b_wPK, https://drive.google.com/open?id=19K2HhJ-qbihHLvuwcCdeI4FikTHcMAHV</t>
-        </is>
-      </c>
-      <c r="BD35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BE35" t="inlineStr"/>
-      <c r="BF35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BG35" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=12AVxd3IWgCzoCDCVJnqBxseG9D1x_AJ0</t>
-        </is>
-      </c>
-      <c r="BH35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BI35" t="inlineStr">
-        <is>
-          <t>Con miras a la correcta implementación de la solución tecnológica Bogdata la entidad viene adelantando un plan de capacitación para lo funcionarios, contratistas y entidades del Distrito Capital. Los manuales y videos tutoriales diseñado pueden consultarse en el link https://haciendabogota.wixsite.com/bogdata/copia-de-entrenamientos</t>
-        </is>
-      </c>
-      <c r="BJ35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BK35" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1Zwj7yfrwoxDQIacdIuu5Oq1Mq_A5Tra7</t>
-        </is>
-      </c>
-      <c r="BL35" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BM35" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1WCsMc0ta2IUIt2G0GKcf-5vryOF15MZk, https://drive.google.com/open?id=1WojK-JaKV_Bf58EZyIrJ8mdV767o2JXY, https://drive.google.com/open?id=1AwnWnk2o_cicJ_ssW7Avzq_VZJYRGRqH, https://drive.google.com/open?id=1d-OVrP1dSbS_7W-n2RhjS1OebyyrLgbd</t>
-        </is>
-      </c>
-      <c r="BN35" t="inlineStr">
-        <is>
-          <t>d8ee456f-f58d-423b-9407-1af8f7ee5faa</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>yaneth.pinilla@ambientebogota.gov.co</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Secretaria Distrital De Ambiente</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Yaneth Lucia Pinilla Beltran</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Profesional Universitario 219-18</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>yaneth.pinilla@ambientebogota.gov.co</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>En concordancia con la meta plan de desarrollo distrital, la SDA se ha trazado como objetivo general “Elevar la articulación en la gestión de información en la SDA” .</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vigencia 2019 $26.157’274.833
@@ -11760,202 +11430,522 @@
 </t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t xml:space="preserve">El valor del presupuesto de funcionamiento se calculó con los contratistas que requirió la Subdirección Financiera para la complementación de dicha innovación como Bog- data
 Vigencia 2020 $120.000.000
 </t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>Vigencia 2019 $327.182’271.990;  Vigencia 2020 $68.709’759.751</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t xml:space="preserve">VIGENCIA 2019 $253.885.716 </t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>2019: 133 Funcionarios 2020: 138 Funcionarios</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>15 FUNCIONARIOS, El número de funcionarios corresponde a 15 no obstante no se cuenta con las evidencias completas debido a que los temas de innovación no se encuentran establecido en los manuales de funciones y se trabajaba de manera aislada a la política ahora establecida.</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>https://drive.google.com/open?id=1SwhWmrEzwQpKeZ9VL0B24ldHZ9b4UmO-</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigencia 2019 = 1.371
 Vigencia 2020 = 1.456
 </t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>entre 2019 y 2020 fueron 63 contratistas</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>https://drive.google.com/open?id=1wYEMCs8LFQYmhotrgiaCxlQdF06OdhpG</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
         <is>
           <t xml:space="preserve">•	Implementación Bogdata para la administración de presupuesto y tesorería
 •	Inclusión de solicitud de pago de personas jurídicas en el aplicativo Forest
 </t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>A. Utilizó esta información para la planificación de las acciones de la Entidad (Comités directivos, reuniones de planeación, entre otros)</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
         <is>
           <t xml:space="preserve">1.	El Canal virtual de la página web y a su vez el correo electrónico se habilitó para recepcionar de la ciudadanía opiniones, preguntas, propuesta o aportes para formular el plan anticorrupción y de atención a la ciudadanía de la entidad. 
 </t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
         <is>
           <t>La SDA, cuenta con los canales de comunicación tales como: correo electrónico, sistema de correspondencia (forest), que se encuentran a disposición de funcionarios y contratistas,</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
         </is>
       </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
         <is>
           <t>Durante el 2019 y 2020 la SDA utilizó diferentes canales virtuales para la recepción de ideas de las cuales sirvieron para formular el Plan Distrital de Desarrollo, específicamente desde la SDA como cabeza de sector Ambiente.</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
         <is>
           <t xml:space="preserve">- A través de las reuniones de equipo se reciben las propuestas de los funcionarios y contratistas en relación con los procesos y servicios que presta la OPEL.
 </t>
         </is>
       </c>
-      <c r="AG36" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>A. Si, solamente con funcionarios y/o contratistas.</t>
         </is>
       </c>
-      <c r="AH36" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>A. Si, solamente con funcionarios y/o contratistas.</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
         <is>
           <t xml:space="preserve">1.	En 2020 se generó la versión preliminar del Plan de Acción Climática para Bogotá D.C. 2020-2050 con lo cual se avanzó en el cumplimiento de una meta del PDD.
 </t>
         </is>
       </c>
-      <c r="AK36" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>C. Formación o capacitación directa en temas de innovación auspiciadas y/o financiadas por la entidad., D. Formación o capacitación directa en temas de innovación auspiciadas y/o financiadas por otra entidad.</t>
         </is>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AL35" t="inlineStr">
         <is>
           <t xml:space="preserve">A través del área de  bienestar y capacitación, se extendió invitación a la convocatoria a curso virtual sobre innovación publica, al igual que  la socialización a capacitación del taller de innovación 
 </t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
         <is>
           <t>Se han extendido invitaciones a participar en talleres y cursos sobre innovación pública.</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
         <is>
           <t xml:space="preserve">•	Dentro del plan de Bienestar e incentivos, se invita a la creación de grupos de trabajo para que desarrollen temas innovadores dentro de la entidad.
 </t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
         <is>
           <t xml:space="preserve">1.	Plan de Acción Climática para Bogotá D.C. 2020 – 2050 (PAC).
 2.	Acciones pedagógicas virtuales, frente al cuidado del agua, manejo de residuos, 
 </t>
         </is>
       </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>3 funcionarios recibieron formación en temas de innovación</t>
+        </is>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ningún contratistas </t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>Se tiene establecido un lineamiento el cual se pretende implementar en esta vigencia. junto con el equipo de trabajo a conformar entre las diferentes dependencias</t>
+        </is>
+      </c>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1CkcvWTbJh9lRoJCqhgbjRJfQQcvBXBQS</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1drG-vZ_1dQ_Z-aBkG_mjwW4HX1w2enHq</t>
+        </is>
+      </c>
+      <c r="BD35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1aJx3DU3bmB07ObAvwczF7x_ApwOlFcP2</t>
+        </is>
+      </c>
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1mL8_8w0jH_5OdujYe_ZVamcz9HNBMwXX</t>
+        </is>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="BI35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La solución al reto realizado con la Secretaría Distrital de Ambiente, Estrategia “Bogotá RIE en Cuatro Segundos – Nueva Cadena de Valor para los Plásticos de un Solo Uso”  </t>
+        </is>
+      </c>
+      <c r="BJ35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="BK35" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1LsKjjg-PThMkXW57DfHO6VfELCZv8moH</t>
+        </is>
+      </c>
+      <c r="BL35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="BM35" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1u3cDnKO3O3NExpB6rCDrjP6AKXRLmRrr</t>
+        </is>
+      </c>
+      <c r="BN35" t="inlineStr">
+        <is>
+          <t>f44cbd7c-171d-4b35-9133-8901fb67c3a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>diana.rocha@gobiernobogota.gov.co</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Secretaria Distrital De Gobierno</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Miguel Angel Cardozo Tovar</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Jefe Oficina Asesora De Planeación</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>miguel.cardozo@gobiernobogota.gov.co</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>$ 349,900,000. Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2019: 960  y  2020: 934 . Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>15. Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2019: 3 contratos y 2020: 11 . Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>A. Utilizó esta información para la planificación de las acciones de la Entidad (Comités directivos, reuniones de planeación, entre otros), B. Utilizó esta información para desarrollar alguna actividad de socialización de cara a la ciudadanía (Talleres o reuniones en las cuales se utiliza esta información como insumo), Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>B. Eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad.</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>respuesta en archivo pregunta 26.1. Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>Estrategia mejores equipos de teletrabajo, Resoluciones 0271 de 2019 y 0113 de 2020.</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>Se enviara anexos al correo de la Veeduría</t>
+        </is>
+      </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>3 funcionarios recibieron formación en temas de innovación</t>
+          <t>67: 6 provisionales y 61 carrera Se enviara anexos al correo de la Veeduría</t>
         </is>
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ningún contratistas </t>
+          <t>1 - Se enviara anexos al correo de la Veeduría</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
@@ -11963,7 +11953,11 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="AW36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Res 783 de 2018 CIGD y Anexo Equipo Tecnico</t>
+        </is>
+      </c>
       <c r="AX36" t="inlineStr">
         <is>
           <t>Si</t>
@@ -11971,29 +11965,21 @@
       </c>
       <c r="AY36" t="inlineStr">
         <is>
-          <t>Se tiene establecido un lineamiento el cual se pretende implementar en esta vigencia. junto con el equipo de trabajo a conformar entre las diferentes dependencias</t>
+          <t>Se enviara anexos al correo de la Veeduría</t>
         </is>
       </c>
       <c r="AZ36" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BA36" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1CkcvWTbJh9lRoJCqhgbjRJfQQcvBXBQS</t>
-        </is>
-      </c>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="BC36" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1drG-vZ_1dQ_Z-aBkG_mjwW4HX1w2enHq</t>
-        </is>
-      </c>
+      <c r="BC36" t="inlineStr"/>
       <c r="BD36" t="inlineStr">
         <is>
           <t>Si</t>
@@ -12001,19 +11987,15 @@
       </c>
       <c r="BE36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1aJx3DU3bmB07ObAvwczF7x_ApwOlFcP2</t>
+          <t>https://drive.google.com/open?id=1B_74JryYblEY4PLKNoDknJWlaneRvmPX, https://drive.google.com/open?id=1unqJgXHK4iAzf4UjMQZJVW9apSXxt5g0, https://drive.google.com/open?id=1FuLgC17aUaYYh6F2dcuG1K4-haATsYEJ, https://drive.google.com/open?id=1YPUQJw8XMn2m4x7EeuHuj9KX7lEON_oT, https://drive.google.com/open?id=1h2SxyvTBTvyl7qaNzjMRkXIDIPy76TCG</t>
         </is>
       </c>
       <c r="BF36" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BG36" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1mL8_8w0jH_5OdujYe_ZVamcz9HNBMwXX</t>
-        </is>
-      </c>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr"/>
       <c r="BH36" t="inlineStr">
         <is>
           <t>Si</t>
@@ -12021,7 +12003,7 @@
       </c>
       <c r="BI36" t="inlineStr">
         <is>
-          <t xml:space="preserve">La solución al reto realizado con la Secretaría Distrital de Ambiente, Estrategia “Bogotá RIE en Cuatro Segundos – Nueva Cadena de Valor para los Plásticos de un Solo Uso”  </t>
+          <t>AGORA</t>
         </is>
       </c>
       <c r="BJ36" t="inlineStr">
@@ -12029,63 +12011,51 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="BK36" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1LsKjjg-PThMkXW57DfHO6VfELCZv8moH</t>
-        </is>
-      </c>
+      <c r="BK36" t="inlineStr"/>
       <c r="BL36" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="BM36" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1u3cDnKO3O3NExpB6rCDrjP6AKXRLmRrr</t>
-        </is>
-      </c>
+      <c r="BM36" t="inlineStr"/>
       <c r="BN36" t="inlineStr">
         <is>
-          <t>f44cbd7c-171d-4b35-9133-8901fb67c3a0</t>
+          <t>2a1228b4-8ee2-424d-ac64-2c28d249f7f7</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>diana.rocha@gobiernobogota.gov.co</t>
+          <t>aidee.sanchezc@habitatbogota.gov.co</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Gobierno</t>
+          <t>Secretaria Distrital De Habitat</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Miguel Angel Cardozo Tovar</t>
+          <t>Aidee Sánchez Corredor</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jefe Oficina Asesora De Planeación</t>
+          <t>Subdirectora De Programas Y Proyectos</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>miguel.cardozo@gobiernobogota.gov.co</t>
+          <t>aidee.sanchezc@habitatbogota.gov.co</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>Si</t>
@@ -12093,64 +12063,72 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>Proyecto 7590 Desarrollo de estrategias de innovación social y comunicación para el fortalecimiento de la participación en temas Hábitat en Bogotá.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>2019: $19.227.635.856 , 2020: $19.920.650.838</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>$ 349,900,000. Se enviara anexos al correo de la Veeduría</t>
+          <t>2019: $0 , 2020: $0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>2019: $132.479.555.887  2020: $103.478.912.180</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>2019: $0 2020: $2.005.000.oo</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2019: 960  y  2020: 934 . Se enviara anexos al correo de la Veeduría</t>
+          <t>2019: 108  2020: 105</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>15. Se enviara anexos al correo de la Veeduría</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr"/>
+          <t>2019: 0  2020: 1</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1XvBq48ap920xK1h69JE91Vs2APPNvG0z</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>2019: 429 , 2020: 619</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>2019: 3 contratos y 2020: 11 . Se enviara anexos al correo de la Veeduría</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>2019: 0  2020: 28</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1WDKS3b28thzQxsI5TdXenygMHahhpQ04</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>A. Utilizó esta información para la planificación de las acciones de la Entidad (Comités directivos, reuniones de planeación, entre otros), B. Utilizó esta información para desarrollar alguna actividad de socialización de cara a la ciudadanía (Talleres o reuniones en las cuales se utiliza esta información como insumo), Se enviara anexos al correo de la Veeduría</t>
+          <t>A. Utilizó esta información para la planificación de las acciones de la Entidad (Comités directivos, reuniones de planeación, entre otros)</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -12160,7 +12138,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>En el periodo señalado se contó con un canal escrito a través de encuestas de satisfacción y percepción del servicio donde la ciudadanía podría identificar oportunidades de mejora o recomendaciones</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -12170,17 +12148,17 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>En la SDHT se cuenta con el buzón de sugerencias, a través del cual, se pueden identificar oportunidades de mejorar o sugerencias para mejorar el proceso o los procesos de la Entidad.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
+          <t>A. Si, solamente con funcionarios y/o contratistas.</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
+          <t>A. Si, solamente con funcionarios y/o contratistas.</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -12190,7 +12168,7 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>1.La SDHT tiene habilitados los buzones de sugerencias y la tipología sugerencias a través de los canales virtuales, telefónicos y presenciales. 2. En 2020 desde la Subdirección de Participación y Relaciones con la Comunidad, con el fin de hacer un seguimiento al grado de satisfacción de usuarios frente a las acciones de la Secretaria Distrital de Hábitat, implementó una encuesta virtual de percepción ciudadana. 3. En el marco de la Mesa Sectorial, se diseñó e implementó una encuesta ciudadana sobre el Plan Sectorial de Participación, a fin de obtener información que alimentara la construcción de éste para la vigencia 2020 - 2024</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
@@ -12200,17 +12178,17 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>Se anexa en correo.</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
+          <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
+          <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -12220,17 +12198,17 @@
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>Se anexa en correo.</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>B. Eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad.</t>
+          <t>A. Eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por la entidad., C. Formación o capacitación directa en temas de innovación auspiciadas y/o financiadas por la entidad.</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>Se realizarón diferentes eventos de formación</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
@@ -12240,7 +12218,7 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>respuesta en archivo pregunta 26.1. Se enviara anexos al correo de la Veeduría</t>
+          <t>Se anexa en correo.</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -12250,7 +12228,8 @@
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>Estrategia mejores equipos de teletrabajo, Resoluciones 0271 de 2019 y 0113 de 2020.</t>
+          <t>Dentro de los espacios de experimentación y co-creación están las reuniones de planificación mensuales durante el segundo semestre del 2020.
+Con la realización de actividades en los diferentes pisos de la Entidad con el objetivo de dar a conocer las funciones de la SIVC</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -12265,29 +12244,21 @@
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
-        </is>
-      </c>
-      <c r="AT37" t="inlineStr">
-        <is>
-          <t>67: 6 provisionales y 61 carrera Se enviara anexos al correo de la Veeduría</t>
-        </is>
-      </c>
-      <c r="AU37" t="inlineStr">
-        <is>
-          <t>1 - Se enviara anexos al correo de la Veeduría</t>
-        </is>
+          <t>Se anexa en correo</t>
+        </is>
+      </c>
+      <c r="AT37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>14</v>
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="AW37" t="inlineStr">
-        <is>
-          <t>Res 783 de 2018 CIGD y Anexo Equipo Tecnico</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr">
         <is>
           <t>Si</t>
@@ -12295,21 +12266,29 @@
       </c>
       <c r="AY37" t="inlineStr">
         <is>
-          <t>Se enviara anexos al correo de la Veeduría</t>
+          <t>Se cuenta con un documento de avance para definir el linamiento que se encuentra fuera y dentro de la SDHT.</t>
         </is>
       </c>
       <c r="AZ37" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BA37" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BA37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1xsEHQj49cKGrVcmtZVD6sTNTwmG7-6vz</t>
+        </is>
+      </c>
       <c r="BB37" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="BC37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1hyPcGjrUeBySW6F-zwelBtfI-OLxRUlG</t>
+        </is>
+      </c>
       <c r="BD37" t="inlineStr">
         <is>
           <t>Si</t>
@@ -12317,7 +12296,7 @@
       </c>
       <c r="BE37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1B_74JryYblEY4PLKNoDknJWlaneRvmPX, https://drive.google.com/open?id=1unqJgXHK4iAzf4UjMQZJVW9apSXxt5g0, https://drive.google.com/open?id=1FuLgC17aUaYYh6F2dcuG1K4-haATsYEJ, https://drive.google.com/open?id=1YPUQJw8XMn2m4x7EeuHuj9KX7lEON_oT, https://drive.google.com/open?id=1h2SxyvTBTvyl7qaNzjMRkXIDIPy76TCG</t>
+          <t>https://drive.google.com/open?id=1Bwk3Biige_kX7cWoD3hADT0tGDiJ-tNM</t>
         </is>
       </c>
       <c r="BF37" t="inlineStr">
@@ -12325,64 +12304,76 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="BG37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1Hid-pe1jd6UUkVnFi6MEPAJ4PkDUeVoS, https://drive.google.com/open?id=16kVPRCwU6a_U5yZpluVMgcsAN__0MdTi, https://drive.google.com/open?id=16-Wj8r0VtIwUSF9LuAfjjUMndvcWHSkm</t>
+        </is>
+      </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="BI37" t="inlineStr">
         <is>
-          <t>AGORA</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="BJ37" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BK37" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BK37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1yeP2It_YWrT9_x7UrL45inrOS1VWGb1g</t>
+        </is>
+      </c>
       <c r="BL37" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BM37" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BM37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=1Ut91KOh22F4nxgPwmjaqxPunrrzsC6K4</t>
+        </is>
+      </c>
       <c r="BN37" t="inlineStr">
         <is>
-          <t>2a1228b4-8ee2-424d-ac64-2c28d249f7f7</t>
+          <t>6b9496af-f22b-4ffa-8fd0-3715b7a4c44f</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>aidee.sanchezc@habitatbogota.gov.co</t>
+          <t>myriamvillamil001@gmail.com</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Habitat</t>
+          <t>Secretaria Distrital De Hacienda</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aidee Sánchez Corredor</t>
+          <t>Myriam Villamil Barbosa</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Subdirectora De Programas Y Proyectos</t>
+          <t>Profesional Especializado</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>aidee.sanchezc@habitatbogota.gov.co</t>
+          <t>mvillamilb@shd.gov.co</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -12393,72 +12384,76 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Proyecto 7590 Desarrollo de estrategias de innovación social y comunicación para el fortalecimiento de la participación en temas Hábitat en Bogotá.</t>
+          <t>Ver justificación adjunta</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2019: $19.227.635.856 , 2020: $19.920.650.838</t>
+          <t>2019: 201.693.187.664
+2020: 208.398.107.085</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2019: $0 , 2020: $0</t>
+          <t>2019: 13.046.360.347
+2020: 12.715.229.785</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2019: $132.479.555.887  2020: $103.478.912.180</t>
+          <t>2019:74.002.166.230      2020: 34.124.525.322</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2019: $0 2020: $2.005.000.oo</t>
+          <t>2019: 28.482.356.368
+2020: 24.180.389.943</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2019: 108  2020: 105</t>
+          <t>2019: 1.253    2020: 1.294</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2019: 0  2020: 1</t>
+          <t>2019: 126    2020:139</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1XvBq48ap920xK1h69JE91Vs2APPNvG0z</t>
+          <t>https://drive.google.com/open?id=1jyO1umdvl_w_dl1ixLe4DkEaPAQo46al</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2019: 429 , 2020: 619</t>
+          <t>2019: 272    2020: 238</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2019: 0  2020: 28</t>
+          <t>2019: 8   2020:17</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1WDKS3b28thzQxsI5TdXenygMHahhpQ04</t>
+          <t>https://drive.google.com/open?id=1K2ZixKVa9-_MCKkHuuBRVyGwNFRUab99</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t xml:space="preserve">Ver justificación en archivo anexo
+</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>A. Utilizó esta información para la planificación de las acciones de la Entidad (Comités directivos, reuniones de planeación, entre otros)</t>
+          <t>A. Utilizó esta información para la planificación de las acciones de la Entidad (Comités directivos, reuniones de planeación, entre otros), Esta información es utilizada como insumo para la mejora del servicio, como evidencia se adjunta informe de gestión sobre la implementación de la política de Servicio al Ciudadano del Modelo Integrado de Planeación y Gestión.</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -12466,11 +12461,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>En el periodo señalado se contó con un canal escrito a través de encuestas de satisfacción y percepción del servicio donde la ciudadanía podría identificar oportunidades de mejora o recomendaciones</t>
-        </is>
-      </c>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
           <t>Si</t>
@@ -12478,17 +12469,17 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>En la SDHT se cuenta con el buzón de sugerencias, a través del cual, se pueden identificar oportunidades de mejorar o sugerencias para mejorar el proceso o los procesos de la Entidad.</t>
+          <t>Ver justificación en archivo anexo</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>A. Si, solamente con funcionarios y/o contratistas.</t>
+          <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>A. Si, solamente con funcionarios y/o contratistas.</t>
+          <t>A. Si, solamente con funcionarios y/o contratistas., C. Si, actividades conjuntas entre funcionarios y/o contratistas y ciudadanía.</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -12498,7 +12489,7 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>1.La SDHT tiene habilitados los buzones de sugerencias y la tipología sugerencias a través de los canales virtuales, telefónicos y presenciales. 2. En 2020 desde la Subdirección de Participación y Relaciones con la Comunidad, con el fin de hacer un seguimiento al grado de satisfacción de usuarios frente a las acciones de la Secretaria Distrital de Hábitat, implementó una encuesta virtual de percepción ciudadana. 3. En el marco de la Mesa Sectorial, se diseñó e implementó una encuesta ciudadana sobre el Plan Sectorial de Participación, a fin de obtener información que alimentara la construcción de éste para la vigencia 2020 - 2024</t>
+          <t>Ver archivo adjunto de justificación</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
@@ -12508,7 +12499,8 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Se anexa en correo.</t>
+          <t xml:space="preserve">Ver justificación en archivo adjunto
+</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -12528,17 +12520,18 @@
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>Se anexa en correo.</t>
+          <t xml:space="preserve">Ver descripción en archivo adjunto
+</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>A. Eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por la entidad., C. Formación o capacitación directa en temas de innovación auspiciadas y/o financiadas por la entidad.</t>
+          <t>A. Eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por la entidad., B. Eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad., D. Formación o capacitación directa en temas de innovación auspiciadas y/o financiadas por otra entidad.</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>Se realizarón diferentes eventos de formación</t>
+          <t>Ver justificación en archivo anexo</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
@@ -12548,7 +12541,7 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>Se anexa en correo.</t>
+          <t>En el marco de la implementación de la solución tecnológica Bogdata, se ha desarrollado un ejercicio de Gestión del Cambio  articulado a a través del Comité de Gestión del Cambio que se reúne semanalmente con el objetivo se hacer seguimiento al avance de la implementación en aspectos como:  Plan de entrenamientos, estrategia de comunicaciones y avance de los ajustes en la documentación de proceso y procedimientos, y funcionamiento de las aulas virtuales de asesoría a las entidades del Distrito. entre otros aspectos. Se adjuntan presentaciones sobre las reuniones del comité indicado y la resolución SDH - 000046 de 2021 "Por la cual se actualiza el modelo de soporte del Sistema de información Bogdata y se adecuan sus instancias de gobierno"</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -12558,8 +12551,7 @@
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>Dentro de los espacios de experimentación y co-creación están las reuniones de planificación mensuales durante el segundo semestre del 2020.
-Con la realización de actividades en los diferentes pisos de la Entidad con el objetivo de dar a conocer las funciones de la SIVC</t>
+          <t>El espacio de equipos de trabajo, reglamentado mediante la resolución SDH-000542 de 2019, en el cual se convoca a los funcionarios de carrera y libre nombramiento y remoción de la entidad para conformar equipos de trabajo y presentar proyectos nuevos que generen valor a la gestión institucional y solucionen problemas de la organización.(de adjunta la convocatoria realizada en 2019 y 2020).</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
@@ -12574,18 +12566,18 @@
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>Se anexa en correo</t>
+          <t>Ver descripción en archivo adjunto</t>
         </is>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1136</v>
       </c>
       <c r="AU38" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="AW38" t="inlineStr"/>
@@ -12596,17 +12588,17 @@
       </c>
       <c r="AY38" t="inlineStr">
         <is>
-          <t>Se cuenta con un documento de avance para definir el linamiento que se encuentra fuera y dentro de la SDHT.</t>
+          <t xml:space="preserve">Ver justificación en archivo anexo </t>
         </is>
       </c>
       <c r="AZ38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="BA38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1xsEHQj49cKGrVcmtZVD6sTNTwmG7-6vz</t>
+          <t>https://drive.google.com/open?id=1OFGtPFyuAE4t0oUA2SeDIRsp4oSL7Y2C, https://drive.google.com/open?id=1iBT8Tqgf0o0aC7sQoRbZxcd77Ceq7wss</t>
         </is>
       </c>
       <c r="BB38" t="inlineStr">
@@ -12616,19 +12608,15 @@
       </c>
       <c r="BC38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1hyPcGjrUeBySW6F-zwelBtfI-OLxRUlG</t>
+          <t>https://drive.google.com/open?id=14gSMeoVimi4VNrw-hxhgcoF9pQxhMnr5, https://drive.google.com/open?id=1Cy9xOfP5GsWbm9cM7vGY7zyYTurnDaTl, https://drive.google.com/open?id=1Yrcu2-9-v10rwKFszM1esBkLfpCCscKI, https://drive.google.com/open?id=1SI0KjF42QBNpclECXp12gNcGlZ1b_wPK, https://drive.google.com/open?id=19K2HhJ-qbihHLvuwcCdeI4FikTHcMAHV</t>
         </is>
       </c>
       <c r="BD38" t="inlineStr">
         <is>
-          <t>Si</t>
-        </is>
-      </c>
-      <c r="BE38" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/open?id=1Bwk3Biige_kX7cWoD3hADT0tGDiJ-tNM</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BE38" t="inlineStr"/>
       <c r="BF38" t="inlineStr">
         <is>
           <t>Si</t>
@@ -12636,17 +12624,17 @@
       </c>
       <c r="BG38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1Hid-pe1jd6UUkVnFi6MEPAJ4PkDUeVoS, https://drive.google.com/open?id=16kVPRCwU6a_U5yZpluVMgcsAN__0MdTi, https://drive.google.com/open?id=16-Wj8r0VtIwUSF9LuAfjjUMndvcWHSkm</t>
+          <t>https://drive.google.com/open?id=12AVxd3IWgCzoCDCVJnqBxseG9D1x_AJ0</t>
         </is>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="BI38" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>Con miras a la correcta implementación de la solución tecnológica Bogdata la entidad viene adelantando un plan de capacitación para lo funcionarios, contratistas y entidades del Distrito Capital. Los manuales y videos tutoriales diseñado pueden consultarse en el link https://haciendabogota.wixsite.com/bogdata/copia-de-entrenamientos</t>
         </is>
       </c>
       <c r="BJ38" t="inlineStr">
@@ -12656,22 +12644,22 @@
       </c>
       <c r="BK38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1yeP2It_YWrT9_x7UrL45inrOS1VWGb1g</t>
+          <t>https://drive.google.com/open?id=1Zwj7yfrwoxDQIacdIuu5Oq1Mq_A5Tra7</t>
         </is>
       </c>
       <c r="BL38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="BM38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/open?id=1Ut91KOh22F4nxgPwmjaqxPunrrzsC6K4</t>
+          <t>https://drive.google.com/open?id=1WCsMc0ta2IUIt2G0GKcf-5vryOF15MZk, https://drive.google.com/open?id=1WojK-JaKV_Bf58EZyIrJ8mdV767o2JXY, https://drive.google.com/open?id=1AwnWnk2o_cicJ_ssW7Avzq_VZJYRGRqH, https://drive.google.com/open?id=1d-OVrP1dSbS_7W-n2RhjS1OebyyrLgbd</t>
         </is>
       </c>
       <c r="BN38" t="inlineStr">
         <is>
-          <t>6b9496af-f22b-4ffa-8fd0-3715b7a4c44f</t>
+          <t>d8ee456f-f58d-423b-9407-1af8f7ee5faa</t>
         </is>
       </c>
     </row>
@@ -13996,7 +13984,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Secretaria Distrital De Seguridad, Convivencia Y Justicia</t>
+          <t>Secretaria Distrital De Seguridad Convivencia Y Justicia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -16812,7 +16800,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Veeduria Distrital</t>
+          <t>Veeduria Distrial</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -17128,7 +17116,81 @@
           <t>https://drive.google.com/open?id=1aRQ-szUT8sKP2qfDo0frnw0mX5RqzdJL</t>
         </is>
       </c>
-      <c r="BN52" t="inlineStr">
+      <c r="BN52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Veeduria Distrital</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="inlineStr"/>
+      <c r="BA53" t="inlineStr"/>
+      <c r="BB53" t="inlineStr"/>
+      <c r="BC53" t="inlineStr"/>
+      <c r="BD53" t="inlineStr"/>
+      <c r="BE53" t="inlineStr"/>
+      <c r="BF53" t="inlineStr"/>
+      <c r="BG53" t="inlineStr"/>
+      <c r="BH53" t="inlineStr"/>
+      <c r="BI53" t="inlineStr"/>
+      <c r="BJ53" t="inlineStr"/>
+      <c r="BK53" t="inlineStr"/>
+      <c r="BL53" t="inlineStr"/>
+      <c r="BM53" t="inlineStr"/>
+      <c r="BN53" t="inlineStr">
         <is>
           <t>1b01632f-f169-46c5-be3a-d1c1eee6f58c</t>
         </is>

--- a/files/respuestas/2021/respuestas_2021.xlsx
+++ b/files/respuestas/2021/respuestas_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN53"/>
+  <dimension ref="A1:BN52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2674,7 +2674,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alcaldia Local De Martires</t>
+          <t>Alcaldia Local De Los Martires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3022,15 +3022,17 @@
           <t>https://drive.google.com/open?id=1FijEuR4hVZHMN_seUR0zu_0IVtoRqIsH</t>
         </is>
       </c>
-      <c r="BN8" t="n">
-        <v>0</v>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>35492fe1-7cc7-4e86-a18c-aa42d2e6469c</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alcaldia Local De Rafael Uribe</t>
+          <t>Alcaldia Local De Rafael Uribe Uribe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3357,8 +3359,10 @@
           <t>https://drive.google.com/open?id=1VuSP1fjHekL8PaFpyHg-jHXeR6cEVO_e</t>
         </is>
       </c>
-      <c r="BN9" t="n">
-        <v>0</v>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>16790b2a-7734-4ee5-8914-a100e6c136cb</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -5534,7 +5538,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Caja De La Vivienda Popular</t>
+          <t>Caja De Vivienda Popular</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5868,8 +5872,10 @@
           <t>https://drive.google.com/open?id=1JDOeEaA2rk-mhhReXNyFs6MSPW7MInr4</t>
         </is>
       </c>
-      <c r="BN17" t="n">
-        <v>0</v>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>dae08630-74c8-44c3-906c-d4b7fdbd4bfa</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -8832,7 +8838,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Instituto Distrital De La Participacion Y Accion Comunal Idpac</t>
+          <t>Instituto Distrital De Participacion Y Accion Comunal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9144,8 +9150,10 @@
           <t>https://drive.google.com/open?id=1E4157V4PEFrZedunM5JJRE2YYiAoi421</t>
         </is>
       </c>
-      <c r="BN27" t="n">
-        <v>0</v>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>8f2013cb-a19d-4b94-82e1-dde826049c56</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -10133,7 +10141,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Instituto Para La Economia Social</t>
+          <t>Instituto Distrital Para La Economia Social</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -10416,8 +10424,10 @@
         </is>
       </c>
       <c r="BM31" t="inlineStr"/>
-      <c r="BN31" t="n">
-        <v>0</v>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>e32446a6-18d0-481c-b2b4-3e32a9356113</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -16800,7 +16810,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Veeduria Distrial</t>
+          <t>Veeduria Distrital</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -17116,81 +17126,7 @@
           <t>https://drive.google.com/open?id=1aRQ-szUT8sKP2qfDo0frnw0mX5RqzdJL</t>
         </is>
       </c>
-      <c r="BN52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Veeduria Distrital</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
-      <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr"/>
-      <c r="AN53" t="inlineStr"/>
-      <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr"/>
-      <c r="AT53" t="inlineStr"/>
-      <c r="AU53" t="inlineStr"/>
-      <c r="AV53" t="inlineStr"/>
-      <c r="AW53" t="inlineStr"/>
-      <c r="AX53" t="inlineStr"/>
-      <c r="AY53" t="inlineStr"/>
-      <c r="AZ53" t="inlineStr"/>
-      <c r="BA53" t="inlineStr"/>
-      <c r="BB53" t="inlineStr"/>
-      <c r="BC53" t="inlineStr"/>
-      <c r="BD53" t="inlineStr"/>
-      <c r="BE53" t="inlineStr"/>
-      <c r="BF53" t="inlineStr"/>
-      <c r="BG53" t="inlineStr"/>
-      <c r="BH53" t="inlineStr"/>
-      <c r="BI53" t="inlineStr"/>
-      <c r="BJ53" t="inlineStr"/>
-      <c r="BK53" t="inlineStr"/>
-      <c r="BL53" t="inlineStr"/>
-      <c r="BM53" t="inlineStr"/>
-      <c r="BN53" t="inlineStr">
+      <c r="BN52" t="inlineStr">
         <is>
           <t>1b01632f-f169-46c5-be3a-d1c1eee6f58c</t>
         </is>
